--- a/biology/Botanique/Steven_Spurrier_(œnologue)/Steven_Spurrier_(œnologue).xlsx
+++ b/biology/Botanique/Steven_Spurrier_(œnologue)/Steven_Spurrier_(œnologue).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Steven_Spurrier_(%C5%93nologue)</t>
+          <t>Steven_Spurrier_(œnologue)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Steven Spurrier, né le 5 octobre 1941 à Cambridge et mort le 9 mars 2021 à Litton Cheney dans le Dorset en Angleterre[1],[2],[3], est un œnologue, critique vinicole et négociant en vin britannique.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Steven Spurrier, né le 5 octobre 1941 à Cambridge et mort le 9 mars 2021 à Litton Cheney dans le Dorset en Angleterre est un œnologue, critique vinicole et négociant en vin britannique.
 Spécialiste des vins français, il organise en 1976 le « Jugement de Paris » qui, de manière inattendue, élève le statut du vin de Californie et favorise l'expansion de la production de vin dans le Nouveau Monde. Spurrier est, par ailleurs, le fondateur de l'Académie du Vin, à Paris, et du Christie's Wine Course, à Londres.
 Dans Bottle Shock (2008), son rôle est interprété par Alan Rickman.
 </t>
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Steven_Spurrier_(%C5%93nologue)</t>
+          <t>Steven_Spurrier_(œnologue)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>(en) The Academie Du Vin Concise Guide to French Country Wines, 1984 (ISBN 978-0-399-50829-5).
 (en) How to Buy Fine Wines, 1986.
